--- a/nodes_source_analyses/energy/industry/industry_chp_ultra_supercritical_coal.xlsx
+++ b/nodes_source_analyses/energy/industry/industry_chp_ultra_supercritical_coal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/nodes_source_analyses/energy/industry/AAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A983B083-CD60-944C-A91F-ECBF537A24D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF5F68C-BC15-CE41-A71E-A5D4AAA350F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8720" yWindow="3500" windowWidth="27700" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="182">
   <si>
     <t>Source</t>
   </si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">Decmmmissioning cost </t>
   </si>
   <si>
-    <t>Electricity output capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">       Electricity output capacity</t>
   </si>
   <si>
@@ -190,12 +187,6 @@
     <t>part_load_operating_point</t>
   </si>
   <si>
-    <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -236,9 +227,6 @@
   </si>
   <si>
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
-  </si>
-  <si>
-    <t>Heat output capacity</t>
   </si>
   <si>
     <t>Investment cost with ccs</t>
@@ -856,6 +844,12 @@
   </si>
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>input capacity</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1616,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1989,6 +1983,10 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="233">
@@ -2902,12 +2900,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="29"/>
+    <col min="1" max="1" width="4.83203125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="29" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="40" customFormat="1">
@@ -2933,16 +2931,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2967,7 +2965,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="109" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9" s="110"/>
     </row>
@@ -2979,31 +2977,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="111" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="111"/>
       <c r="C12" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="111"/>
       <c r="C13" s="114" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="111"/>
       <c r="C14" s="112" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3014,58 +3012,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="111" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="111"/>
       <c r="C17" s="116" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="111"/>
       <c r="C18" s="117" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="111"/>
       <c r="C19" s="118" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="119"/>
       <c r="C20" s="120" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="119"/>
       <c r="C21" s="121" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="119"/>
       <c r="C22" s="122" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="119"/>
       <c r="C23" s="123" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3079,25 +3077,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K59"/>
+  <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="4"/>
+    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3112,7 +3110,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="194" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="195"/>
       <c r="D2" s="195"/>
@@ -3176,7 +3174,7 @@
     <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B8" s="135"/>
       <c r="C8" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="136" t="s">
         <v>14</v>
@@ -3208,7 +3206,7 @@
     <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="36"/>
       <c r="C10" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="23"/>
@@ -3221,7 +3219,7 @@
     <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="31"/>
       <c r="C11" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>5</v>
@@ -3233,7 +3231,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" s="141"/>
       <c r="K11" s="3"/>
@@ -3241,7 +3239,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="31"/>
       <c r="C12" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>5</v>
@@ -3253,7 +3251,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J12" s="141"/>
       <c r="K12" s="3"/>
@@ -3261,7 +3259,7 @@
     <row r="13" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="31"/>
       <c r="C13" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>5</v>
@@ -3273,7 +3271,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="142"/>
       <c r="K13" s="1"/>
@@ -3281,7 +3279,7 @@
     <row r="14" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B14" s="31"/>
       <c r="C14" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>5</v>
@@ -3293,7 +3291,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J14" s="142"/>
       <c r="K14" s="1"/>
@@ -3301,50 +3299,41 @@
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="31"/>
       <c r="C15" s="46" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E15" s="51">
         <f>'Research data'!G6</f>
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="F15" s="28"/>
-      <c r="G15" s="49" t="s">
-        <v>30</v>
+      <c r="G15" s="203" t="s">
+        <v>181</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J15" s="141"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    <row r="16" spans="2:11">
       <c r="B16" s="31"/>
-      <c r="C16" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="51" t="e">
-        <f>E15*#REF!/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="141"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="31"/>
-      <c r="C17" s="138"/>
+      <c r="C17" s="23" t="s">
+        <v>112</v>
+      </c>
       <c r="D17" s="139"/>
       <c r="E17" s="133"/>
       <c r="F17" s="29"/>
@@ -3355,143 +3344,151 @@
     </row>
     <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="31"/>
-      <c r="C18" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="139"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="141"/>
+      <c r="C18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="47">
+        <f>'Research data'!G18</f>
+        <v>840000000</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="31"/>
       <c r="C19" s="46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="47">
-        <f>'Research data'!G17</f>
-        <v>840000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="49" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="50" t="s">
-        <v>81</v>
+      <c r="I19" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="J19" s="143"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="31"/>
       <c r="C20" s="46" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="47">
         <v>0</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="49" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="143"/>
+        <v>55</v>
+      </c>
+      <c r="J20" s="141"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="31"/>
       <c r="C21" s="46" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="47">
         <v>0</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J21" s="141"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="31"/>
       <c r="C22" s="46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="47">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E22" s="132">
+        <f>'Research data'!G20</f>
+        <v>25600000</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="49" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="30" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="J22" s="141"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="31"/>
       <c r="C23" s="46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="132">
-        <f>'Research data'!G19</f>
-        <v>25600000</v>
+        <v>52</v>
+      </c>
+      <c r="E23" s="47">
+        <f>'Research data'!G22</f>
+        <v>2844.44</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J23" s="141"/>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="31"/>
       <c r="C24" s="46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="47">
-        <f>'Research data'!G21</f>
-        <v>2844.44</v>
+        <v>0</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="30" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J24" s="141"/>
     </row>
@@ -3501,245 +3498,231 @@
         <v>50</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="47">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0.04</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="49" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="H25" s="28"/>
-      <c r="I25" s="30" t="s">
-        <v>58</v>
+      <c r="I25" s="193" t="s">
+        <v>179</v>
       </c>
       <c r="J25" s="141"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="31"/>
       <c r="C26" s="46" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="51">
-        <v>0.04</v>
+        <v>11</v>
+      </c>
+      <c r="E26" s="47">
+        <v>1</v>
       </c>
       <c r="F26" s="28"/>
-      <c r="G26" s="49" t="s">
-        <v>25</v>
-      </c>
+      <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="193" t="s">
-        <v>183</v>
+      <c r="I26" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="J26" s="141"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1">
+    <row r="27" spans="2:10">
       <c r="B27" s="31"/>
-      <c r="C27" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="47">
-        <v>1</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="141"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="31"/>
-      <c r="C28" s="138"/>
+      <c r="C28" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="D28" s="139"/>
       <c r="E28" s="133"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="140"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="141"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="31"/>
-      <c r="C29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="139"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
+      <c r="C29" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="47">
+        <f>'Research data'!G13</f>
+        <v>0.3</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="50" t="s">
+        <v>63</v>
+      </c>
       <c r="J29" s="141"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="31"/>
       <c r="C30" s="46" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="47">
+        <f>'Research data'!G14</f>
         <v>4</v>
       </c>
-      <c r="E30" s="47">
-        <f>'Research data'!G12</f>
-        <v>0.3</v>
-      </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
-        <v>15</v>
+      <c r="G30" s="49" t="s">
+        <v>28</v>
       </c>
       <c r="H30" s="28"/>
-      <c r="I30" s="50" t="s">
-        <v>67</v>
+      <c r="I30" s="155" t="s">
+        <v>125</v>
       </c>
       <c r="J30" s="141"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="31"/>
       <c r="C31" s="46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="47">
-        <f>'Research data'!G13</f>
-        <v>4</v>
+        <f>'Research data'!G15</f>
+        <v>40</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="155" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J31" s="141"/>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="31"/>
       <c r="C32" s="46" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32" s="47">
-        <f>'Research data'!G14</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F32" s="28"/>
-      <c r="G32" s="49" t="s">
-        <v>27</v>
-      </c>
+      <c r="G32" s="28"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="155" t="s">
-        <v>129</v>
+      <c r="I32" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="J32" s="141"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="31"/>
       <c r="C33" s="46" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J33" s="141"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="31"/>
-      <c r="C34" s="46" t="s">
-        <v>54</v>
+      <c r="C34" s="192" t="s">
+        <v>178</v>
       </c>
       <c r="D34" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J34" s="141"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10">
       <c r="B35" s="31"/>
-      <c r="C35" s="192" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="47">
-        <v>0</v>
-      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="133"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="I35" s="29"/>
       <c r="J35" s="141"/>
     </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="31"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="141"/>
-    </row>
-    <row r="37" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="6"/>
+    <row r="36" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -3782,6 +3765,9 @@
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
@@ -3916,16 +3902,6 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3941,34 +3917,34 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:S25"/>
+  <dimension ref="B1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="52" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="52" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="52" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="79" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="79" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="79" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="52" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="52" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="52" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="52" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="79" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="79" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="79" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="79" customWidth="1"/>
+    <col min="14" max="14" width="2.33203125" style="52" customWidth="1"/>
     <col min="15" max="15" width="10" style="79" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="79" customWidth="1"/>
+    <col min="16" max="16" width="3.5" style="79" customWidth="1"/>
     <col min="17" max="17" width="10" style="79" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="52" customWidth="1"/>
-    <col min="19" max="19" width="73.85546875" style="52" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="52"/>
+    <col min="18" max="18" width="2.83203125" style="52" customWidth="1"/>
+    <col min="19" max="19" width="73.83203125" style="52" customWidth="1"/>
+    <col min="20" max="16384" width="10.6640625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
@@ -3995,7 +3971,7 @@
     <row r="3" spans="2:19" s="37" customFormat="1">
       <c r="B3" s="36"/>
       <c r="C3" s="128" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4003,11 +3979,11 @@
         <v>14</v>
       </c>
       <c r="G3" s="128" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H3" s="128"/>
       <c r="I3" s="129" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" s="129"/>
       <c r="K3" s="129" t="s">
@@ -4015,19 +3991,19 @@
       </c>
       <c r="L3" s="129"/>
       <c r="M3" s="129" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N3" s="128"/>
       <c r="O3" s="129" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P3" s="129"/>
       <c r="Q3" s="129" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R3" s="128"/>
       <c r="S3" s="128" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -4053,7 +4029,7 @@
     <row r="5" spans="2:19" ht="17" thickBot="1">
       <c r="B5" s="55"/>
       <c r="C5" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -4074,23 +4050,20 @@
     </row>
     <row r="6" spans="2:19" ht="17" thickBot="1">
       <c r="B6" s="55"/>
-      <c r="C6" s="84" t="s">
-        <v>31</v>
+      <c r="C6" s="98" t="s">
+        <v>180</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
-      <c r="F6" s="124" t="s">
-        <v>102</v>
+      <c r="F6" s="204" t="s">
+        <v>106</v>
       </c>
       <c r="G6" s="86">
-        <f>I6</f>
-        <v>600</v>
+        <f>ROUND(G7/G8,1)</f>
+        <v>1500</v>
       </c>
       <c r="H6" s="87"/>
-      <c r="I6" s="88">
-        <f>Notes!E14</f>
-        <v>600</v>
-      </c>
+      <c r="I6" s="88"/>
       <c r="J6" s="89"/>
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
@@ -4098,42 +4071,36 @@
       <c r="N6" s="82"/>
       <c r="S6" s="177"/>
     </row>
-    <row r="7" spans="2:19" s="169" customFormat="1" ht="17" thickBot="1">
-      <c r="B7" s="170"/>
-      <c r="C7" s="178" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="179" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="180"/>
-      <c r="F7" s="181" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="182">
+    <row r="7" spans="2:19" ht="17" thickBot="1">
+      <c r="B7" s="55"/>
+      <c r="C7" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="86">
         <f>I7</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="182">
-        <f>Notes!E16</f>
-        <v>40</v>
-      </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="184"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="S7" s="177" t="s">
-        <v>173</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="88">
+        <f>Notes!E14</f>
+        <v>600</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="82"/>
+      <c r="S7" s="177"/>
     </row>
     <row r="8" spans="2:19" s="169" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="170"/>
       <c r="C8" s="178" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D8" s="179" t="s">
         <v>3</v>
@@ -4143,13 +4110,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="182">
-        <f>I8</f>
-        <v>15</v>
+        <f>I8/100</f>
+        <v>0.4</v>
       </c>
       <c r="H8" s="183"/>
       <c r="I8" s="182">
-        <f>Notes!E17</f>
-        <v>15</v>
+        <f>Notes!E16</f>
+        <v>40</v>
       </c>
       <c r="J8" s="184"/>
       <c r="K8" s="184"/>
@@ -4159,189 +4126,200 @@
       <c r="O8" s="173"/>
       <c r="P8" s="173"/>
       <c r="S8" s="177" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="B9" s="55"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="82"/>
-      <c r="S9" s="177"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" s="169" customFormat="1" ht="17" thickBot="1">
+      <c r="B9" s="170"/>
+      <c r="C9" s="178" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="179" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="182">
+        <f>I9/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="H9" s="183"/>
+      <c r="I9" s="182">
+        <f>Notes!E17</f>
+        <v>15</v>
+      </c>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="S9" s="177" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="55"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-    </row>
-    <row r="11" spans="2:19" ht="17" thickBot="1">
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="82"/>
+      <c r="S10" s="177"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="55"/>
-      <c r="C11" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="95"/>
-      <c r="S11" s="131"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="2:19" ht="17" thickBot="1">
       <c r="B12" s="55"/>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="S12" s="131"/>
+    </row>
+    <row r="13" spans="2:19" ht="17" thickBot="1">
+      <c r="B13" s="55"/>
+      <c r="C13" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="85" t="s">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="97">
-        <f>ROUND(AVERAGE(O12,Q12),1)</f>
+      <c r="G13" s="97">
+        <f>ROUND(AVERAGE(O13,Q13),1)</f>
         <v>0.3</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="93">
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="93">
         <f>568*594/1000000</f>
         <v>0.33739200000000003</v>
       </c>
-      <c r="Q12" s="93">
+      <c r="Q13" s="93">
         <f>579*489/1000000</f>
         <v>0.28313100000000002</v>
       </c>
-      <c r="S12" s="187" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="17" thickBot="1">
-      <c r="B13" s="55"/>
-      <c r="C13" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="186">
-        <f>K13</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="88">
-        <f>Notes!D113</f>
-        <v>4</v>
-      </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="88">
-        <f>Notes!D80</f>
-        <v>4</v>
-      </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="S13" s="48" t="s">
-        <v>66</v>
+      <c r="S13" s="187" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="17" thickBot="1">
       <c r="B14" s="55"/>
-      <c r="C14" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+      <c r="C14" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="F14" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="186">
         <f>K14</f>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H14" s="92"/>
       <c r="I14" s="92"/>
       <c r="J14" s="92"/>
       <c r="K14" s="88">
-        <f>Notes!D102</f>
-        <v>40</v>
+        <f>Notes!D113</f>
+        <v>4</v>
       </c>
       <c r="L14" s="92"/>
       <c r="M14" s="88">
-        <f>Notes!D81</f>
-        <v>40</v>
+        <f>Notes!D80</f>
+        <v>4</v>
       </c>
       <c r="N14" s="92"/>
       <c r="O14" s="82"/>
       <c r="P14" s="82"/>
       <c r="Q14" s="82"/>
       <c r="S14" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="17" thickBot="1">
       <c r="B15" s="55"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="S15" s="83"/>
-    </row>
-    <row r="16" spans="2:19" ht="17" thickBot="1">
+      <c r="C15" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="99">
+        <f>K15</f>
+        <v>40</v>
+      </c>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="88">
+        <f>Notes!D102</f>
+        <v>40</v>
+      </c>
+      <c r="L15" s="92"/>
+      <c r="M15" s="88">
+        <f>Notes!D81</f>
+        <v>40</v>
+      </c>
+      <c r="N15" s="92"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="S15" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="55"/>
-      <c r="C16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -4353,110 +4331,105 @@
       <c r="O16" s="95"/>
       <c r="P16" s="95"/>
       <c r="Q16" s="95"/>
-      <c r="S16" s="144"/>
+      <c r="S16" s="83"/>
     </row>
     <row r="17" spans="2:19" ht="17" thickBot="1">
       <c r="B17" s="55"/>
-      <c r="C17" s="134" t="s">
-        <v>111</v>
+      <c r="C17" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="186">
-        <f>ROUND(G18*G6*1000,0)</f>
-        <v>840000000</v>
-      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
       <c r="N17" s="19"/>
       <c r="O17" s="95"/>
       <c r="P17" s="95"/>
       <c r="Q17" s="95"/>
-      <c r="S17" s="154" t="s">
-        <v>128</v>
-      </c>
+      <c r="S17" s="144"/>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
       <c r="B18" s="55"/>
       <c r="C18" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="124" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="125" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="186">
-        <f>I18</f>
-        <v>1400</v>
-      </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="107">
-        <f>Notes!E15</f>
-        <v>1400</v>
-      </c>
+        <f>ROUND(G19*G7*1000,0)</f>
+        <v>840000000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="108"/>
       <c r="J18" s="92"/>
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
       <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="95"/>
       <c r="P18" s="95"/>
       <c r="Q18" s="95"/>
-      <c r="S18" s="144"/>
+      <c r="S18" s="154" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" spans="2:19" ht="17" thickBot="1">
       <c r="B19" s="55"/>
       <c r="C19" s="134" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="189">
+        <v>108</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="186">
         <f>I19</f>
-        <v>25600000</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>1400</v>
+      </c>
+      <c r="H19" s="92"/>
       <c r="I19" s="107">
-        <f>Notes!E50</f>
-        <v>25600000</v>
+        <f>Notes!E15</f>
+        <v>1400</v>
       </c>
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
       <c r="L19" s="92"/>
       <c r="M19" s="92"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="S19" s="154"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="S19" s="144"/>
     </row>
     <row r="20" spans="2:19" ht="17" thickBot="1">
       <c r="B20" s="55"/>
       <c r="C20" s="134" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
       <c r="F20" s="126" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="103">
-        <f>G19/(G6*1000)</f>
-        <v>42.666666666666664</v>
+        <v>53</v>
+      </c>
+      <c r="G20" s="189">
+        <f>I20</f>
+        <v>25600000</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="107">
+        <f>Notes!E50</f>
+        <v>25600000</v>
+      </c>
       <c r="J20" s="92"/>
       <c r="K20" s="92"/>
       <c r="L20" s="92"/>
@@ -4465,53 +4438,50 @@
       <c r="O20" s="92"/>
       <c r="P20" s="92"/>
       <c r="Q20" s="92"/>
-      <c r="S20" s="166"/>
+      <c r="S20" s="154"/>
     </row>
     <row r="21" spans="2:19" ht="17" thickBot="1">
       <c r="B21" s="55"/>
-      <c r="C21" s="145" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="100">
-        <f>ROUND((G22/G24),2)</f>
-        <v>2844.44</v>
-      </c>
-      <c r="H21" s="92"/>
+      <c r="C21" s="134" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="103">
+        <f>G20/(G7*1000)</f>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="H21" s="20"/>
       <c r="I21" s="92"/>
       <c r="J21" s="92"/>
       <c r="K21" s="92"/>
       <c r="L21" s="92"/>
       <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
+      <c r="N21" s="102"/>
       <c r="O21" s="92"/>
       <c r="P21" s="92"/>
       <c r="Q21" s="92"/>
-      <c r="S21" s="154"/>
+      <c r="S21" s="166"/>
     </row>
     <row r="22" spans="2:19" ht="17" thickBot="1">
       <c r="B22" s="55"/>
-      <c r="C22" s="134" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
+      <c r="C22" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
       <c r="F22" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="186">
-        <f>I22</f>
-        <v>12800000.000000002</v>
+        <v>52</v>
+      </c>
+      <c r="G22" s="100">
+        <f>ROUND((G23/G25),2)</f>
+        <v>2844.44</v>
       </c>
       <c r="H22" s="92"/>
-      <c r="I22" s="88">
-        <f>Notes!E51</f>
-        <v>12800000.000000002</v>
-      </c>
+      <c r="I22" s="92"/>
       <c r="J22" s="92"/>
       <c r="K22" s="92"/>
       <c r="L22" s="92"/>
@@ -4520,24 +4490,27 @@
       <c r="O22" s="92"/>
       <c r="P22" s="92"/>
       <c r="Q22" s="92"/>
-      <c r="S22" s="48"/>
+      <c r="S22" s="154"/>
     </row>
     <row r="23" spans="2:19" ht="17" thickBot="1">
       <c r="B23" s="55"/>
       <c r="C23" s="134" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="104"/>
       <c r="E23" s="104"/>
-      <c r="F23" s="124" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="100">
-        <f>ROUND((G21/G6),2)</f>
-        <v>4.74</v>
+      <c r="F23" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="186">
+        <f>I23</f>
+        <v>12800000.000000002</v>
       </c>
       <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
+      <c r="I23" s="88">
+        <f>Notes!E51</f>
+        <v>12800000.000000002</v>
+      </c>
       <c r="J23" s="92"/>
       <c r="K23" s="92"/>
       <c r="L23" s="92"/>
@@ -4546,53 +4519,53 @@
       <c r="O23" s="92"/>
       <c r="P23" s="92"/>
       <c r="Q23" s="92"/>
-      <c r="S23" s="154"/>
+      <c r="S23" s="48"/>
     </row>
     <row r="24" spans="2:19" ht="17" thickBot="1">
       <c r="B24" s="55"/>
       <c r="C24" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="185">
-        <f>I24</f>
-        <v>4500</v>
-      </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="88">
-        <f>Notes!E18</f>
-        <v>4500</v>
-      </c>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="S24" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="100">
+        <f>ROUND((G22/G7),2)</f>
+        <v>4.74</v>
+      </c>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="S24" s="154"/>
     </row>
     <row r="25" spans="2:19" ht="17" thickBot="1">
       <c r="B25" s="55"/>
       <c r="C25" s="134" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D25" s="83"/>
       <c r="E25" s="83"/>
-      <c r="F25" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="106">
-        <f>G24*G6</f>
-        <v>2700000</v>
+      <c r="F25" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="185">
+        <f>I25</f>
+        <v>4500</v>
       </c>
       <c r="H25" s="56"/>
-      <c r="I25" s="82"/>
+      <c r="I25" s="88">
+        <f>Notes!E18</f>
+        <v>4500</v>
+      </c>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
@@ -4601,10 +4574,36 @@
       <c r="O25" s="95"/>
       <c r="P25" s="95"/>
       <c r="Q25" s="95"/>
-      <c r="S25" s="83"/>
+      <c r="S25" s="48"/>
+    </row>
+    <row r="26" spans="2:19" ht="17" thickBot="1">
+      <c r="B26" s="55"/>
+      <c r="C26" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="106">
+        <f>G25*G7</f>
+        <v>2700000</v>
+      </c>
+      <c r="H26" s="56"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="S26" s="83"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S24">
+  <conditionalFormatting sqref="S25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4615,8 +4614,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="S13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="S15" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S14" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4634,17 +4633,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="57" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="58" customWidth="1"/>
-    <col min="10" max="10" width="105.42578125" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="57"/>
+    <col min="1" max="1" width="10.1640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="57" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="57" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="58" customWidth="1"/>
+    <col min="10" max="10" width="105.5" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4686,7 +4685,7 @@
     <row r="5" spans="2:10">
       <c r="B5" s="67"/>
       <c r="C5" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="68" t="s">
         <v>0</v>
@@ -4695,16 +4694,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="68" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H5" s="68" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J5" s="68" t="s">
         <v>16</v>
@@ -4725,29 +4724,29 @@
       <c r="B7" s="149"/>
       <c r="C7" s="156"/>
       <c r="D7" s="157" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E7" s="158" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F7" s="159" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G7" s="160" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7" s="159"/>
       <c r="I7" s="167" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J7" s="157" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="146" customFormat="1">
       <c r="B8" s="149"/>
       <c r="C8" s="161" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" s="157"/>
       <c r="E8" s="150"/>
@@ -4760,7 +4759,7 @@
     <row r="9" spans="2:10" s="146" customFormat="1">
       <c r="B9" s="149"/>
       <c r="C9" s="161" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" s="157"/>
       <c r="E9" s="150"/>
@@ -4791,17 +4790,17 @@
         <v>23</v>
       </c>
       <c r="F11" s="75" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G11" s="165">
         <v>2010</v>
       </c>
       <c r="H11" s="75"/>
       <c r="I11" s="76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J11" s="77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4834,27 +4833,27 @@
       <c r="B14" s="62"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="65" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J14" s="77"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="62"/>
       <c r="C15" s="190" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="65"/>
@@ -4867,7 +4866,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="62"/>
       <c r="C16" s="134" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D16" s="70"/>
       <c r="E16" s="65"/>
@@ -4880,7 +4879,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="62"/>
       <c r="C17" s="145" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="70"/>
       <c r="E17" s="65"/>
@@ -4893,7 +4892,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="62"/>
       <c r="C18" s="190" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="65"/>
@@ -4906,7 +4905,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="62"/>
       <c r="C19" s="180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="65"/>
@@ -4919,7 +4918,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="62"/>
       <c r="C20" s="178" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D20" s="70"/>
       <c r="E20" s="65"/>
@@ -4932,7 +4931,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="62"/>
       <c r="C21" s="178" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D21" s="70"/>
       <c r="E21" s="65"/>
@@ -4946,25 +4945,25 @@
       <c r="B22" s="62"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="66">
         <v>2013</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="62"/>
       <c r="C23" s="70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="70"/>
       <c r="E23" s="65"/>
@@ -4977,7 +4976,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="62"/>
       <c r="C24" s="73" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D24" s="70"/>
       <c r="E24" s="65"/>
@@ -4990,7 +4989,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="62"/>
       <c r="C25" s="73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D25" s="65"/>
       <c r="E25" s="70"/>
@@ -5003,7 +5002,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="62"/>
       <c r="C26" s="191" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="65"/>
       <c r="E26" s="70"/>
@@ -5012,14 +5011,14 @@
       <c r="H26" s="70"/>
       <c r="I26" s="78"/>
       <c r="J26" s="168" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="62"/>
       <c r="C27" s="70"/>
       <c r="D27" s="57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="70" t="s">
         <v>10</v>
@@ -5027,20 +5026,20 @@
       <c r="F27" s="70"/>
       <c r="G27" s="70"/>
       <c r="H27" s="70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I27" s="78"/>
       <c r="J27" s="70" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="62"/>
       <c r="C28" s="73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D28" s="65" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
@@ -5064,7 +5063,7 @@
       <c r="B30" s="62"/>
       <c r="C30" s="70"/>
       <c r="D30" s="65" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E30" s="70" t="s">
         <v>10</v>
@@ -5072,20 +5071,20 @@
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
       <c r="H30" s="70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I30" s="78"/>
       <c r="J30" s="70" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="62"/>
       <c r="C31" s="73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="65" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E31" s="70"/>
       <c r="F31" s="70"/>
@@ -5114,13 +5113,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="146" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="146" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="146" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="146"/>
+    <col min="2" max="2" width="4.83203125" style="146" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="146" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="146" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -5143,11 +5142,11 @@
     <row r="3" spans="2:16" s="37" customFormat="1">
       <c r="B3" s="135"/>
       <c r="C3" s="24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5163,7 +5162,7 @@
     <row r="4" spans="2:16" s="169" customFormat="1">
       <c r="B4" s="170"/>
       <c r="C4" s="168" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="168"/>
       <c r="E4" s="168"/>
@@ -5182,7 +5181,7 @@
     <row r="5" spans="2:16" s="169" customFormat="1">
       <c r="B5" s="170"/>
       <c r="C5" s="168" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D5" s="168"/>
       <c r="E5" s="168"/>
@@ -5325,7 +5324,7 @@
         <v>600000</v>
       </c>
       <c r="F13" s="168" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G13" s="168"/>
       <c r="H13" s="168"/>
@@ -5346,7 +5345,7 @@
         <v>600</v>
       </c>
       <c r="F14" s="169" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G14" s="168"/>
       <c r="H14" s="168"/>
@@ -5366,7 +5365,7 @@
         <v>1400</v>
       </c>
       <c r="F15" s="168" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G15" s="168"/>
       <c r="H15" s="168"/>
@@ -5383,7 +5382,7 @@
       <c r="B16" s="170"/>
       <c r="C16" s="168"/>
       <c r="D16" s="169" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E16" s="168">
         <v>40</v>
@@ -5406,7 +5405,7 @@
       <c r="B17" s="170"/>
       <c r="C17" s="168"/>
       <c r="D17" s="169" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E17" s="168">
         <v>15</v>
@@ -5429,13 +5428,13 @@
       <c r="B18" s="170"/>
       <c r="C18" s="168"/>
       <c r="D18" s="169" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E18" s="168">
         <v>4500</v>
       </c>
       <c r="F18" s="168" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G18" s="168"/>
       <c r="H18" s="168"/>
@@ -5562,7 +5561,7 @@
     <row r="26" spans="2:16" s="169" customFormat="1">
       <c r="B26" s="170"/>
       <c r="C26" s="168" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="168"/>
@@ -5580,12 +5579,12 @@
     <row r="27" spans="2:16" s="169" customFormat="1">
       <c r="B27" s="170"/>
       <c r="C27" s="168" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E27" s="168"/>
       <c r="F27" s="168"/>
       <c r="G27" s="168" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H27" s="168"/>
       <c r="I27" s="168"/>
@@ -5603,7 +5602,7 @@
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
       <c r="G28" s="168" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H28" s="168"/>
       <c r="I28" s="168"/>
@@ -5621,7 +5620,7 @@
       <c r="E29" s="168"/>
       <c r="F29" s="168"/>
       <c r="G29" s="168" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H29" s="168"/>
       <c r="I29" s="168"/>
@@ -5655,7 +5654,7 @@
       <c r="E31" s="168"/>
       <c r="F31" s="168"/>
       <c r="G31" s="168" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H31" s="168"/>
       <c r="I31" s="168"/>
@@ -5671,7 +5670,7 @@
       <c r="B32" s="170"/>
       <c r="C32" s="168"/>
       <c r="D32" s="168" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E32" s="168">
         <v>40</v>
@@ -5680,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="172" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H32" s="168"/>
       <c r="I32" s="168"/>
@@ -5696,7 +5695,7 @@
       <c r="B33" s="170"/>
       <c r="C33" s="168"/>
       <c r="D33" s="168" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E33" s="168">
         <v>15</v>
@@ -5705,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="172" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H33" s="168"/>
       <c r="I33" s="168"/>
@@ -5722,7 +5721,7 @@
       <c r="C34" s="168"/>
       <c r="E34" s="168"/>
       <c r="G34" s="172" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H34" s="168"/>
       <c r="I34" s="168"/>
@@ -5740,7 +5739,7 @@
       <c r="E35" s="168"/>
       <c r="F35" s="168"/>
       <c r="G35" s="172" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H35" s="168"/>
       <c r="I35" s="168"/>
@@ -5758,7 +5757,7 @@
       <c r="E36" s="168"/>
       <c r="F36" s="168"/>
       <c r="G36" s="168" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H36" s="168"/>
       <c r="I36" s="168"/>
@@ -5837,7 +5836,7 @@
     <row r="41" spans="2:16" s="169" customFormat="1">
       <c r="B41" s="170"/>
       <c r="C41" s="168" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E41" s="168"/>
       <c r="F41" s="168"/>
@@ -5968,13 +5967,13 @@
       <c r="B49" s="170"/>
       <c r="C49" s="168"/>
       <c r="D49" s="168" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E49" s="168">
         <v>38400000</v>
       </c>
       <c r="F49" s="168" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G49" s="168"/>
       <c r="H49" s="168"/>
@@ -5991,14 +5990,14 @@
       <c r="B50" s="170"/>
       <c r="C50" s="168"/>
       <c r="D50" s="168" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E50" s="188">
         <f>E49*E64</f>
         <v>25600000</v>
       </c>
       <c r="F50" s="168" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G50" s="168"/>
       <c r="H50" s="168"/>
@@ -6015,14 +6014,14 @@
       <c r="B51" s="170"/>
       <c r="C51" s="168"/>
       <c r="D51" s="169" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E51" s="188">
         <f>E49*E65</f>
         <v>12800000.000000002</v>
       </c>
       <c r="F51" s="168" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G51" s="168"/>
       <c r="H51" s="168"/>
@@ -6166,7 +6165,7 @@
     <row r="60" spans="2:16" s="169" customFormat="1">
       <c r="B60" s="170"/>
       <c r="C60" s="168" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E60" s="168"/>
       <c r="F60" s="168"/>
@@ -6184,12 +6183,12 @@
     <row r="61" spans="2:16" s="169" customFormat="1">
       <c r="B61" s="170"/>
       <c r="C61" s="168" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E61" s="168"/>
       <c r="F61" s="168"/>
       <c r="G61" s="168" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H61" s="168"/>
       <c r="I61" s="168"/>
@@ -6207,7 +6206,7 @@
       <c r="E62" s="168"/>
       <c r="F62" s="168"/>
       <c r="G62" s="168" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H62" s="168"/>
       <c r="I62" s="168"/>
@@ -6239,7 +6238,7 @@
       <c r="B64" s="170"/>
       <c r="C64" s="168"/>
       <c r="D64" s="169" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E64" s="174">
         <f>2/3</f>
@@ -6247,7 +6246,7 @@
       </c>
       <c r="F64" s="168"/>
       <c r="G64" s="169" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H64" s="168"/>
       <c r="I64" s="168"/>
@@ -6263,7 +6262,7 @@
       <c r="B65" s="170"/>
       <c r="C65" s="168"/>
       <c r="D65" s="169" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E65" s="174">
         <f>1-E64</f>
@@ -6271,7 +6270,7 @@
       </c>
       <c r="F65" s="168"/>
       <c r="G65" s="169" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H65" s="168"/>
       <c r="I65" s="168"/>
@@ -6289,7 +6288,7 @@
       <c r="E66" s="168"/>
       <c r="F66" s="168"/>
       <c r="G66" s="175" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H66" s="168"/>
       <c r="I66" s="168"/>
@@ -6308,7 +6307,7 @@
       <c r="E67" s="168"/>
       <c r="F67" s="168"/>
       <c r="G67" s="175" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H67" s="168"/>
       <c r="I67" s="168"/>
@@ -6327,7 +6326,7 @@
       <c r="E68" s="168"/>
       <c r="F68" s="168"/>
       <c r="G68" s="175" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H68" s="168"/>
       <c r="I68" s="168"/>
@@ -6346,7 +6345,7 @@
       <c r="E69" s="168"/>
       <c r="F69" s="168"/>
       <c r="G69" s="176" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H69" s="168"/>
       <c r="I69" s="168"/>
@@ -6365,7 +6364,7 @@
       <c r="E70" s="168"/>
       <c r="F70" s="168"/>
       <c r="G70" s="168" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H70" s="168"/>
       <c r="I70" s="168"/>
@@ -6412,7 +6411,7 @@
     <row r="73" spans="2:17">
       <c r="B73" s="149"/>
       <c r="C73" s="150" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D73" s="150"/>
       <c r="E73" s="150"/>
@@ -6446,7 +6445,7 @@
     <row r="75" spans="2:17">
       <c r="B75" s="149"/>
       <c r="C75" s="150" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D75" s="150"/>
       <c r="E75" s="150"/>
@@ -6534,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="150" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G80" s="150"/>
       <c r="H80" s="150"/>
@@ -6549,13 +6548,13 @@
     <row r="81" spans="2:15">
       <c r="B81" s="149"/>
       <c r="C81" s="150" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D81" s="150">
         <v>40</v>
       </c>
       <c r="E81" s="150" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G81" s="150"/>
       <c r="H81" s="150"/>
@@ -6764,7 +6763,7 @@
     <row r="94" spans="2:15">
       <c r="B94" s="149"/>
       <c r="C94" s="150" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D94" s="150"/>
       <c r="E94" s="150"/>
@@ -6894,13 +6893,13 @@
     <row r="102" spans="2:15">
       <c r="B102" s="149"/>
       <c r="C102" s="150" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D102" s="153">
         <v>40</v>
       </c>
       <c r="E102" s="153" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F102" s="150"/>
       <c r="G102" s="150"/>
@@ -6980,7 +6979,7 @@
     <row r="107" spans="2:15">
       <c r="B107" s="149"/>
       <c r="C107" s="150" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D107" s="150"/>
       <c r="E107" s="150"/>
@@ -7084,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="150" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G113" s="150"/>
       <c r="H113" s="150"/>
